--- a/assets/disciplinas/LOM3208.xlsx
+++ b/assets/disciplinas/LOM3208.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>A disciplina visa propiciar aos alunos os conhecimentos básicos de eletroquímica, tanto do ponto de vista da eletroquímica iônica como da eletródica, e apresentar as principais aplicações da eletroquímica</t>
+    <t>144651 - Antonio Fernando Sartori</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>144651 - Antonio Fernando Sartori</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Princípios da eletroquímica iônica e da eletroquímica eletródica. Aplicações.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Princípios da eletroquímica iônica: interações iônicas, equilíbrio iônico e condução eletrolítica. Princípios da eletroquímica eletródica: fenômenos interfaciais, potenciais de eletrodo e células eletroquímicas. Processos de eletrodo. Métodos eletroquímicos de análise química. Aplicações da eletroquímica: fontes eletroquímicas de energia, processos eletrometalúrgicos e galvanoplastia.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BOCKRIS, J.O.M.;. REDDY, A.K.N. Modern Electrochemistry, 2 vols, Plenum Press, NY, 1977. DENARO, A. R. Fundamentos de Eletroquímica, Ed. Edgard Blucher, São Paulo, 1974. OLDHAM, K. B.; MYLAND, J. C. Fundamentals of Electrochemical Science, Academic Press, New York, 1994. TICIANELLI, E. A.; GONZALEZ, E. R., Eletroquímica, Edusp, 1998. CROW, D.R. Principles and Applications of Electrochemistry, Blackie Academic and Professional, London, 1994. KUHN, A .T. Industrial Electrochemical Processes, Elsevier, Amsterdam, 1971. PLETCHER, D.; WALSH, F. C. Industrial Electrochemistry, 2 ed., Blackie Academic &amp; Professional, Cambridge,1993.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3208.xlsx
+++ b/assets/disciplinas/LOM3208.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>The course aims to provide students with basic knowledge of electrochemistry, both from the point of view of ionic and electrodic electrochemistry, and to present the main applications of electrochemistry</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -88,10 +91,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Principles of ionic electrochemistry and electrodic electrochemistry. Applications.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Principles of ionic electrochemistry: ionic interactions, ionic equilibrium and electrolyte conduction. Principles of electrochemical electrochemistry: interfacial phenomena, electrode potentials and electrochemical cells. Electrode processes. Electrochemical methods of chemical analysis. Applications of electrochemistry: electrochemical sources of energy, electrometallurgical processes and electroplating.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -597,31 +606,43 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -632,17 +653,23 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -653,48 +680,48 @@
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3208.xlsx
+++ b/assets/disciplinas/LOM3208.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>A disciplina visa propiciar aos alunos os conhecimentos básicos de eletroquímica, tanto do ponto de vista da eletroquímica iônica como da eletródica, e apresentar as principais aplicações da eletroquímica</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>The course aims to provide students with basic knowledge of electrochemistry, both from the point of view of ionic and electrodic electrochemistry, and to present the main applications of electrochemistry</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>144651 - Antonio Fernando Sartori</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>The course aims to provide students with basic knowledge of electrochemistry, both from the point of view of ionic and electrodic electrochemistry, and to present the main applications of electrochemistry</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Princípios da eletroquímica iônica e da eletroquímica eletródica. Aplicações.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Princípios da eletroquímica iônica: interações iônicas, equilíbrio iônico e condução eletrolítica. Princípios da eletroquímica eletródica: fenômenos interfaciais, potenciais de eletrodo e células eletroquímicas. Processos de eletrodo. Métodos eletroquímicos de análise química. Aplicações da eletroquímica: fontes eletroquímicas de energia, processos eletrometalúrgicos e galvanoplastia.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas, seminários e exercícios comentados.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, seminários e exercícios comentados.</t>
+    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>BOCKRIS, J.O.M.;. REDDY, A.K.N. Modern Electrochemistry, 2 vols, Plenum Press, NY, 1977. DENARO, A. R. Fundamentos de Eletroquímica, Ed. Edgard Blucher, São Paulo, 1974. OLDHAM, K. B.; MYLAND, J. C. Fundamentals of Electrochemical Science, Academic Press, New York, 1994. TICIANELLI, E. A.; GONZALEZ, E. R., Eletroquímica, Edusp, 1998. CROW, D.R. Principles and Applications of Electrochemistry, Blackie Academic and Professional, London, 1994. KUHN, A .T. Industrial Electrochemical Processes, Elsevier, Amsterdam, 1971. PLETCHER, D.; WALSH, F. C. Industrial Electrochemistry, 2 ed., Blackie Academic &amp; Professional, Cambridge,1993.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
